--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1761,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1808,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1854,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2541,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2576,28 +2588,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2634,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2743,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2778,28 +2790,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2836,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2904,10 +2916,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2951,28 +2963,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2997,28 +3009,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3106,10 +3118,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3153,28 +3165,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3199,28 +3211,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3569,10 +3581,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3616,28 +3628,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3662,28 +3674,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4118,10 +4130,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4165,28 +4177,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4211,28 +4223,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4419,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4466,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4512,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4609,10 +4621,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4656,28 +4668,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4702,28 +4714,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4840,10 +4852,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4887,28 +4899,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4933,28 +4945,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5042,10 +5054,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5089,28 +5101,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5135,28 +5147,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5458,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5505,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5551,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5805,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5898,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5995,10 +6007,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6042,28 +6054,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6088,28 +6100,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6325,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6372,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6418,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6527,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
